--- a/data/trans_orig/P05B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>31495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21874</v>
+        <v>21216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44210</v>
+        <v>42281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.030579142665089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02123756298843473</v>
+        <v>0.02059867134115588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04292399472960913</v>
+        <v>0.04105109981496538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -765,19 +765,19 @@
         <v>67993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53164</v>
+        <v>53628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85646</v>
+        <v>85512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0517010957959937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04042553748240663</v>
+        <v>0.04077796562694047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06512435577971175</v>
+        <v>0.06502229165194591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -786,19 +786,19 @@
         <v>99488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82667</v>
+        <v>81652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121263</v>
+        <v>118319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04242431592356231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03525128475188482</v>
+        <v>0.03481852926389994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05170967975317079</v>
+        <v>0.05045427161432169</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>998461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>985746</v>
+        <v>987675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1008082</v>
+        <v>1008740</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.969420857334911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9570760052703911</v>
+        <v>0.9589489001850348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9787624370115653</v>
+        <v>0.9794013286588442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1223</v>
@@ -836,19 +836,19 @@
         <v>1247120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1229467</v>
+        <v>1229601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1261949</v>
+        <v>1261485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9482989042040063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9348756442202883</v>
+        <v>0.9349777083480543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9595744625175935</v>
+        <v>0.9592220343730596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2226</v>
@@ -857,19 +857,19 @@
         <v>2245581</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2223806</v>
+        <v>2226750</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2262402</v>
+        <v>2263417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9575756840764377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9482903202468292</v>
+        <v>0.9495457283856785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9647487152481152</v>
+        <v>0.9651814707361002</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>48353</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35031</v>
+        <v>35917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63760</v>
+        <v>64179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02855369958986565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02068667746946531</v>
+        <v>0.02120992759757788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03765173093588493</v>
+        <v>0.03789944122728141</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -982,19 +982,19 @@
         <v>69638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56358</v>
+        <v>54740</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91447</v>
+        <v>87163</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04390687646359408</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0355337632369585</v>
+        <v>0.03451323342437247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0576572444109586</v>
+        <v>0.05495587847815269</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -1003,19 +1003,19 @@
         <v>117992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98765</v>
+        <v>98902</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142660</v>
+        <v>142105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03597897045675288</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03011630828363397</v>
+        <v>0.03015798907426655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04350104085638649</v>
+        <v>0.0433318952592878</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1645060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1629653</v>
+        <v>1629234</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1658382</v>
+        <v>1657496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9714463004101344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9623482690641151</v>
+        <v>0.9621005587727178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9793133225305348</v>
+        <v>0.9787900724024219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1485</v>
@@ -1053,19 +1053,19 @@
         <v>1516411</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1494602</v>
+        <v>1498886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1529691</v>
+        <v>1531309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.956093123536406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9423427555890415</v>
+        <v>0.9450441215218472</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9644662367630411</v>
+        <v>0.9654867665756275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3089</v>
@@ -1074,19 +1074,19 @@
         <v>3161470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3136802</v>
+        <v>3137357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3180697</v>
+        <v>3180560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9640210295432471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9564989591436135</v>
+        <v>0.9566681047407123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.969883691716366</v>
+        <v>0.9698420109257335</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>16509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9856</v>
+        <v>9830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26614</v>
+        <v>26556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03006780542652475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01795146813911159</v>
+        <v>0.01790283524122226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04847180623077559</v>
+        <v>0.04836669418481714</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>20651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12483</v>
+        <v>12509</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30946</v>
+        <v>30899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04334603760757465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02620276103100788</v>
+        <v>0.02625675704718058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06495571139591301</v>
+        <v>0.06485847434478369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1220,19 +1220,19 @@
         <v>37159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25549</v>
+        <v>26450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52349</v>
+        <v>51084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03623661267951473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02491440582517376</v>
+        <v>0.02579280133060292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05104928141044855</v>
+        <v>0.04981577863564828</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>532546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522441</v>
+        <v>522499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539199</v>
+        <v>539225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9699321945734752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9515281937692243</v>
+        <v>0.9516333058151829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9820485318608885</v>
+        <v>0.9820971647587781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>433</v>
@@ -1270,19 +1270,19 @@
         <v>455761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445466</v>
+        <v>445513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463929</v>
+        <v>463903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9566539623924254</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9350442886040868</v>
+        <v>0.9351415256552166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9737972389689922</v>
+        <v>0.9737432429528194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>942</v>
@@ -1291,19 +1291,19 @@
         <v>988307</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>973117</v>
+        <v>974382</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>999917</v>
+        <v>999016</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9637633873204853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9489507185895514</v>
+        <v>0.9501842213643517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9750855941748261</v>
+        <v>0.9742071986693972</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>96357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02944522377167277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1416,19 +1416,19 @@
         <v>158282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04686257438403699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -1437,19 +1437,19 @@
         <v>254639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03829160054035863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3176067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3155907</v>
+        <v>3153423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3194337</v>
+        <v>3194188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9705547762283272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643942755973219</v>
+        <v>0.9636352792201053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761378545750695</v>
+        <v>0.9760924600725183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3141</v>
@@ -1487,19 +1487,19 @@
         <v>3219291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3191543</v>
+        <v>3192509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3243425</v>
+        <v>3242209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.953137425615963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9449220218363439</v>
+        <v>0.9452080559721253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9602826713579969</v>
+        <v>0.9599228182541868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6257</v>
@@ -1508,19 +1508,19 @@
         <v>6395358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6361893</v>
+        <v>6363516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6423640</v>
+        <v>6424821</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9617083994596414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9566760803872317</v>
+        <v>0.9569200936237447</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9659612758782113</v>
+        <v>0.9661388843122042</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>13859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7718</v>
+        <v>7951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23062</v>
+        <v>24160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01427813975680208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00795131956146929</v>
+        <v>0.008191353736144507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02375958801006736</v>
+        <v>0.02489042754717516</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -1872,19 +1872,19 @@
         <v>17454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10027</v>
+        <v>9856</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28172</v>
+        <v>27895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01315133006598097</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007555391135364162</v>
+        <v>0.007426542769529393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02122743826596759</v>
+        <v>0.02101815367164525</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -1893,19 +1893,19 @@
         <v>31313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22253</v>
+        <v>21555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44657</v>
+        <v>44357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01362731589403845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009684488501009982</v>
+        <v>0.009380579055290664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01943451729970169</v>
+        <v>0.01930417252064998</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>956778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>947575</v>
+        <v>946477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>962919</v>
+        <v>962686</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.985721860243198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9762404119899325</v>
+        <v>0.9751095724528247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9920486804385307</v>
+        <v>0.9918086462638555</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1222</v>
@@ -1943,19 +1943,19 @@
         <v>1309715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1298997</v>
+        <v>1299274</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1317142</v>
+        <v>1317313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.986848669934019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9787725617340324</v>
+        <v>0.9789818463283547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9924446088646358</v>
+        <v>0.9925734572304706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2112</v>
@@ -1964,19 +1964,19 @@
         <v>2266492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2253148</v>
+        <v>2253448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2275552</v>
+        <v>2276250</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9863726841059616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.980565482700298</v>
+        <v>0.98069582747935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.99031551149899</v>
+        <v>0.9906194209447092</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>31690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21128</v>
+        <v>20519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45671</v>
+        <v>44674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01619206242679704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01079520969708115</v>
+        <v>0.01048400504577333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02333580161894267</v>
+        <v>0.02282612926677344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2089,19 +2089,19 @@
         <v>35484</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24614</v>
+        <v>24928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49934</v>
+        <v>49633</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02024584621203483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01404378508465256</v>
+        <v>0.0142228147070323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02849027257838509</v>
+        <v>0.02831838494817837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -2110,19 +2110,19 @@
         <v>67175</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52193</v>
+        <v>52098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87161</v>
+        <v>85547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01810724576109458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01406895337003386</v>
+        <v>0.01404322766095406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02349460759324841</v>
+        <v>0.02305953536582084</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1925448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1911467</v>
+        <v>1912464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1936010</v>
+        <v>1936619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.983807937573203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9766641983810573</v>
+        <v>0.9771738707332264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9892047903029187</v>
+        <v>0.9895159949542264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1597</v>
@@ -2160,19 +2160,19 @@
         <v>1717194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1702744</v>
+        <v>1703045</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1728064</v>
+        <v>1727750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9797541537879652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715097274216149</v>
+        <v>0.9716816150518223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9859562149153476</v>
+        <v>0.9857771852929678</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3418</v>
@@ -2181,19 +2181,19 @@
         <v>3642640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3622654</v>
+        <v>3624268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3657622</v>
+        <v>3657717</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9818927542389054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9765053924067516</v>
+        <v>0.9769404646341792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9859310466299662</v>
+        <v>0.985956772339046</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>11007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5434</v>
+        <v>5415</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21573</v>
+        <v>19675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.023025800493616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01136790058433957</v>
+        <v>0.0113277561589055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04512793035319757</v>
+        <v>0.04115799856286859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2306,19 +2306,19 @@
         <v>4778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1802</v>
+        <v>1829</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10898</v>
+        <v>10559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0104394842541185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003937602425822117</v>
+        <v>0.003996572046920708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02381330972506913</v>
+        <v>0.02307082846890259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -2327,19 +2327,19 @@
         <v>15785</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9475</v>
+        <v>8940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25719</v>
+        <v>25536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01686963351563086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01012601085634046</v>
+        <v>0.009554940585594042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02748665321154771</v>
+        <v>0.02729115265936824</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>467024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456458</v>
+        <v>458356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472597</v>
+        <v>472616</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.976974199506384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9548720696468024</v>
+        <v>0.9588420014371314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9886320994156603</v>
+        <v>0.9886722438410944</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -2377,19 +2377,19 @@
         <v>452884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446764</v>
+        <v>447103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455860</v>
+        <v>455833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9895605157458816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9761866902749309</v>
+        <v>0.9769291715310975</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960623975741779</v>
+        <v>0.9960034279530793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>831</v>
@@ -2398,19 +2398,19 @@
         <v>919908</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>909974</v>
+        <v>910157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>926218</v>
+        <v>926753</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9831303664843691</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9725133467884524</v>
+        <v>0.9727088473406322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9898739891436602</v>
+        <v>0.9904450594144062</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>56556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42715</v>
+        <v>42671</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77069</v>
+        <v>74268</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01660577175332047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01254196115094401</v>
+        <v>0.01252896231297756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02262884163925412</v>
+        <v>0.02180636702866205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -2523,19 +2523,19 @@
         <v>57716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45201</v>
+        <v>43681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76329</v>
+        <v>73702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01631550332684146</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01277753543972673</v>
+        <v>0.01234785898777916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02157700386999745</v>
+        <v>0.02083440645840327</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -2544,19 +2544,19 @@
         <v>114272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93859</v>
+        <v>93350</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137614</v>
+        <v>139077</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01645788457230785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01351785012221328</v>
+        <v>0.01344464384750254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01981959241820859</v>
+        <v>0.02003030597621676</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3349249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3328736</v>
+        <v>3331537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3363090</v>
+        <v>3363134</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833942282466795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.977371158360746</v>
+        <v>0.9781936329713384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987458038849056</v>
+        <v>0.9874710376870226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3225</v>
@@ -2594,19 +2594,19 @@
         <v>3479793</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3461180</v>
+        <v>3463807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3492308</v>
+        <v>3493828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9836844966731585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9784229961300026</v>
+        <v>0.9791655935415967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9872224645602732</v>
+        <v>0.9876521410122208</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6361</v>
@@ -2615,19 +2615,19 @@
         <v>6829042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6805700</v>
+        <v>6804237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6849455</v>
+        <v>6849964</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9835421154276921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9801804075817915</v>
+        <v>0.9799696940237836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9864821498777868</v>
+        <v>0.9865553561524975</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>10102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5146</v>
+        <v>5476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17320</v>
+        <v>18578</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01341836637682961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006835770394016208</v>
+        <v>0.00727419061310706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02300486291535393</v>
+        <v>0.02467668006529732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2979,19 +2979,19 @@
         <v>25742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17472</v>
+        <v>16720</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40059</v>
+        <v>37068</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02606819232248261</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01769302178959916</v>
+        <v>0.01693168119588716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0405663683141043</v>
+        <v>0.03753739715205339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -3000,19 +3000,19 @@
         <v>35844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24858</v>
+        <v>25333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48644</v>
+        <v>49740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02059594541354024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0142830993686969</v>
+        <v>0.01455599377577751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02795095080219293</v>
+        <v>0.02858043848123885</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>742765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>735547</v>
+        <v>734289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>747721</v>
+        <v>747391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9865816336231704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.976995137084646</v>
+        <v>0.9753233199347024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931642296059837</v>
+        <v>0.9927258093868929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>863</v>
@@ -3050,19 +3050,19 @@
         <v>961743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>947426</v>
+        <v>950417</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>970013</v>
+        <v>970765</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9739318076775174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9594336316858956</v>
+        <v>0.9624626028479466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9823069782104009</v>
+        <v>0.9830683188041127</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1613</v>
@@ -3071,19 +3071,19 @@
         <v>1704508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1691708</v>
+        <v>1690612</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1715494</v>
+        <v>1715019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9794040545864597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9720490491978071</v>
+        <v>0.9714195615187612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9857169006313031</v>
+        <v>0.9854440062242226</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>29282</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18471</v>
+        <v>19585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42493</v>
+        <v>42648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0141454562606165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008922942600616547</v>
+        <v>0.009461012036436329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02052759216102425</v>
+        <v>0.02060249767403889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -3196,19 +3196,19 @@
         <v>40883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29934</v>
+        <v>29285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55636</v>
+        <v>55449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02063280834049534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01510707026259262</v>
+        <v>0.01477983381932061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02807850153812144</v>
+        <v>0.0279840058375921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -3217,19 +3217,19 @@
         <v>70165</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55788</v>
+        <v>54776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89226</v>
+        <v>89276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01731819737005565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01376976730285712</v>
+        <v>0.01351988758254552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02202293950634989</v>
+        <v>0.02203532039445441</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2040765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2027554</v>
+        <v>2027399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2051576</v>
+        <v>2050462</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9858545437393835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9794724078389757</v>
+        <v>0.9793975023259613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910770573993831</v>
+        <v>0.9905389879635638</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1863</v>
@@ -3267,19 +3267,19 @@
         <v>1940563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1925810</v>
+        <v>1925997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1951512</v>
+        <v>1952161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9793671916595047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9719214984618786</v>
+        <v>0.9720159941624075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9848929297374074</v>
+        <v>0.9852201661806793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3783</v>
@@ -3288,19 +3288,19 @@
         <v>3981328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3962267</v>
+        <v>3962217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3995705</v>
+        <v>3996717</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9826818026299443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9779770604936499</v>
+        <v>0.9779646796055456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9862302326971427</v>
+        <v>0.9864801124174545</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>6640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2119</v>
+        <v>1928</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15228</v>
+        <v>14980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0121614113437053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003881493606806534</v>
+        <v>0.003531304864376499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02789032951430057</v>
+        <v>0.02743713605719722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3413,19 +3413,19 @@
         <v>8821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4149</v>
+        <v>4244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17091</v>
+        <v>16857</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01606372561059796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007555706124677554</v>
+        <v>0.007728146684875979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03112382308290164</v>
+        <v>0.03069713701817117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3434,19 +3434,19 @@
         <v>15461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8407</v>
+        <v>8560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26761</v>
+        <v>26116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01411818481583552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00767681922292595</v>
+        <v>0.007816491634304482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02443671318173889</v>
+        <v>0.02384785801426921</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>539348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530760</v>
+        <v>531008</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543869</v>
+        <v>544060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9878385886562947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721096704856991</v>
+        <v>0.9725628639428022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961185063931934</v>
+        <v>0.9964686951356235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>518</v>
@@ -3484,19 +3484,19 @@
         <v>540319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>532049</v>
+        <v>532283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>544991</v>
+        <v>544896</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.983936274389402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9688761769170972</v>
+        <v>0.9693028629818287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924442938753223</v>
+        <v>0.992271853315124</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1013</v>
@@ -3505,19 +3505,19 @@
         <v>1079667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1068367</v>
+        <v>1069012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1086721</v>
+        <v>1086568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9858818151841645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.975563286818261</v>
+        <v>0.9761521419857313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.992323180777074</v>
+        <v>0.9921835083656957</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>46024</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33553</v>
+        <v>33648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63452</v>
+        <v>60493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01366142119852593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009959693718897655</v>
+        <v>0.009987853244617968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01883469568728235</v>
+        <v>0.01795615623474972</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -3630,19 +3630,19 @@
         <v>75446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59592</v>
+        <v>59878</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94920</v>
+        <v>94875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02144526804911369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01693878976941877</v>
+        <v>0.01702017762801242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02698064851749185</v>
+        <v>0.02696793256768666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -3651,19 +3651,19 @@
         <v>121470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99141</v>
+        <v>98153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149095</v>
+        <v>145189</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01763764236013445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01439537492284309</v>
+        <v>0.01425204106030313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02164888896206499</v>
+        <v>0.02108173185436066</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3322878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3305450</v>
+        <v>3308409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3335349</v>
+        <v>3335254</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.986338578801474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9811653043127182</v>
+        <v>0.9820438437652502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900403062811024</v>
+        <v>0.9900121467553821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3244</v>
@@ -3701,19 +3701,19 @@
         <v>3442625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3423151</v>
+        <v>3423196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3458479</v>
+        <v>3458193</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9785547319508863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9730193514825082</v>
+        <v>0.9730320674323133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9830612102305812</v>
+        <v>0.9829798223719876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6409</v>
@@ -3722,19 +3722,19 @@
         <v>6765503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6737878</v>
+        <v>6741784</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6787832</v>
+        <v>6788820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9823623576398656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.978351111037935</v>
+        <v>0.9789182681456392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9856046250771568</v>
+        <v>0.9857479589396968</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>11913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6796</v>
+        <v>6915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20329</v>
+        <v>20735</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02073981212866066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01183069737421698</v>
+        <v>0.01203774765635207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03539090584964935</v>
+        <v>0.03609863341816318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4086,19 +4086,19 @@
         <v>13299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8259</v>
+        <v>8612</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19727</v>
+        <v>20634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01625002805506725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01009090159871907</v>
+        <v>0.01052330991292201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02410392065539522</v>
+        <v>0.0252124541008637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -4107,19 +4107,19 @@
         <v>25212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17870</v>
+        <v>18000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35158</v>
+        <v>35874</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01810162804884631</v>
+        <v>0.0181016280488463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01283000681224214</v>
+        <v>0.01292323410000469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02524225644082734</v>
+        <v>0.02575670349042228</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>562490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>554074</v>
+        <v>553668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>567607</v>
+        <v>567488</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9792601878713393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9646090941503507</v>
+        <v>0.9639013665818369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881693026257832</v>
+        <v>0.987962252343648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1398</v>
@@ -4157,19 +4157,19 @@
         <v>805119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>798691</v>
+        <v>797784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>810159</v>
+        <v>809806</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9837499719449327</v>
+        <v>0.9837499719449325</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9758960793446048</v>
+        <v>0.9747875458991364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9899090984012809</v>
+        <v>0.9894766900870781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2072</v>
@@ -4178,19 +4178,19 @@
         <v>1367609</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1357663</v>
+        <v>1356947</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1374951</v>
+        <v>1374821</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9818983719511537</v>
+        <v>0.9818983719511538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9747577435591727</v>
+        <v>0.9742432965095779</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9871699931877579</v>
+        <v>0.9870767658999953</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>13146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6774</v>
+        <v>6462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23395</v>
+        <v>22403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00589679566178023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003038888066302847</v>
+        <v>0.002898641806882221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01049432989389389</v>
+        <v>0.01004954131542848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -4303,19 +4303,19 @@
         <v>22094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14932</v>
+        <v>14993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32074</v>
+        <v>31769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01018910882786636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006886450651026646</v>
+        <v>0.00691431443553621</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01479184069240916</v>
+        <v>0.01465106846091351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4324,19 +4324,19 @@
         <v>35239</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25546</v>
+        <v>25026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49008</v>
+        <v>48538</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008013237676018152</v>
+        <v>0.008013237676018154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005809114581003749</v>
+        <v>0.005690747235637665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01114409378100167</v>
+        <v>0.01103721219031335</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2216116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2205867</v>
+        <v>2206859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2222488</v>
+        <v>2222800</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9941032043382197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.989505670106106</v>
+        <v>0.9899504586845714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969611119336971</v>
+        <v>0.9971013581931177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2886</v>
@@ -4374,19 +4374,19 @@
         <v>2146281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2136301</v>
+        <v>2136606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2153443</v>
+        <v>2153382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898108911721336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9852081593075909</v>
+        <v>0.9853489315390865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9931135493489733</v>
+        <v>0.9930856855644639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4865</v>
@@ -4395,19 +4395,19 @@
         <v>4362398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4348629</v>
+        <v>4349099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4372091</v>
+        <v>4372611</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9919867623239818</v>
+        <v>0.9919867623239819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9888559062189984</v>
+        <v>0.9889627878096867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994190885418996</v>
+        <v>0.9943092527643624</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>12810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6708</v>
+        <v>7128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23127</v>
+        <v>24179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01803815386970569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009445624775992431</v>
+        <v>0.01003699792732429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0325662333870525</v>
+        <v>0.03404734999831738</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -4520,19 +4520,19 @@
         <v>12211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7381</v>
+        <v>6814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19896</v>
+        <v>20371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01667617913923804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01008015828433012</v>
+        <v>0.009305249974779994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02717094787068561</v>
+        <v>0.02781943250426661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -4541,19 +4541,19 @@
         <v>25021</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16045</v>
+        <v>16641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38072</v>
+        <v>36845</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01734672518300295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01112379765747268</v>
+        <v>0.01153655585989925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0263946197158041</v>
+        <v>0.02554418470604987</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>697341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>687024</v>
+        <v>685972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>703443</v>
+        <v>703023</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9819618461302944</v>
+        <v>0.9819618461302941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9674337666129483</v>
+        <v>0.9659526500016826</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905543752240077</v>
+        <v>0.9899630020726757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>984</v>
@@ -4591,19 +4591,19 @@
         <v>720056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>712371</v>
+        <v>711896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724886</v>
+        <v>725453</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.983323820860762</v>
+        <v>0.9833238208607621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9728290521293145</v>
+        <v>0.9721805674957334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9899198417156698</v>
+        <v>0.99069475002522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1651</v>
@@ -4612,19 +4612,19 @@
         <v>1417397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1404346</v>
+        <v>1405573</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1426373</v>
+        <v>1425777</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.982653274816997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9736053802841959</v>
+        <v>0.9744558152939499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9888762023425273</v>
+        <v>0.9884634441401005</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>37868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26736</v>
+        <v>26360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52127</v>
+        <v>53366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01077698133050361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007608866089342949</v>
+        <v>0.007501712038904944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0148349427282566</v>
+        <v>0.01518748523281979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -4737,19 +4737,19 @@
         <v>47605</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37100</v>
+        <v>36256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60036</v>
+        <v>59728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01280015363028581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009975747445926929</v>
+        <v>0.009748758305053246</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01614275907386236</v>
+        <v>0.01605985994079657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -4758,19 +4758,19 @@
         <v>85473</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69259</v>
+        <v>69349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104489</v>
+        <v>105409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01181727263328648</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009575566272443875</v>
+        <v>0.009588030205970856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01444637611813098</v>
+        <v>0.01457353672775031</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3475948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3461689</v>
+        <v>3460450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3487080</v>
+        <v>3487456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9892230186694965</v>
+        <v>0.9892230186694964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9851650572717437</v>
+        <v>0.9848125147671801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923911339106571</v>
+        <v>0.9924982879610951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5268</v>
@@ -4808,19 +4808,19 @@
         <v>3671454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3659023</v>
+        <v>3659331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3681959</v>
+        <v>3682803</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9871998463697143</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9838572409261375</v>
+        <v>0.9839401400592027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990024252554073</v>
+        <v>0.9902512416949467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8588</v>
@@ -4829,19 +4829,19 @@
         <v>7147402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7128386</v>
+        <v>7127466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7163616</v>
+        <v>7163526</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9881827273667134</v>
+        <v>0.9881827273667135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9855536238818691</v>
+        <v>0.9854264632722496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9904244337275562</v>
+        <v>0.9904119697940292</v>
       </c>
     </row>
     <row r="15">
